--- a/api/dashboard/roles/assets/role_base_template.xlsx
+++ b/api/dashboard/roles/assets/role_base_template.xlsx
@@ -279,7 +279,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="50.0"/>
     <col customWidth="1" min="2" max="2" width="40.0"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="24" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
